--- a/In-Output of Bloomberg's Model/Output-Bloomberg-with-Input-Excel.xlsx
+++ b/In-Output of Bloomberg's Model/Output-Bloomberg-with-Input-Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Επενδυτική Επιτροπή\BQL files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user2\Documents\Python_files\Black_Litterman\Iolcus-Investments\In-Output of Bloomberg's Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43566014-020B-4B1A-A427-EBD12DDDBB66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDA27BD-3ACF-41AF-A033-24765C0AC39D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{746BEC7B-6F70-43C0-AEA3-40078CA979BF}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9360" xr2:uid="{746BEC7B-6F70-43C0-AEA3-40078CA979BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
